--- a/src/assets/xlsx/template_hours.xlsx
+++ b/src/assets/xlsx/template_hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\magina-timer-vue\src\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\MobilesApp\MaginaTimer-vue\src\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C16850-1ED6-4306-A888-6D5343475B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F068C-1891-461E-8244-5C184820A94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="975" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Month" sheetId="13" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>NOM DE L'ENTREPRISE :</t>
   </si>
   <si>
-    <t>indiquer le nbr d'heures travaillées</t>
-  </si>
-  <si>
-    <t>Indiquer le numéro de semaine</t>
-  </si>
-  <si>
     <t>Lundi</t>
   </si>
   <si>
@@ -172,13 +166,16 @@
     <t>Inscrire AA pour absences autorisées</t>
   </si>
   <si>
-    <t>No Sem</t>
-  </si>
-  <si>
     <t>Joindre copie arrêt</t>
   </si>
   <si>
     <t>Fourniture de bureau, divers</t>
+  </si>
+  <si>
+    <t>Magina</t>
+  </si>
+  <si>
+    <t>MOIS : __date__</t>
   </si>
   <si>
     <r>
@@ -192,20 +189,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Valentin Debris</t>
+      <t>__fullname__</t>
     </r>
   </si>
   <si>
-    <t>Mensualisation heures : 173,3</t>
-  </si>
-  <si>
-    <t>Brut mensuel : 2900</t>
-  </si>
-  <si>
-    <t>MOIS : Mars 2019</t>
-  </si>
-  <si>
-    <t>Magina</t>
+    <t>Brut mensuel : __salary__</t>
+  </si>
+  <si>
+    <t>Mensualisation heures : __hours__</t>
   </si>
 </sst>
 </file>
@@ -734,15 +725,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.36328125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -752,7 +743,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -770,12 +761,12 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="1"/>
@@ -794,7 +785,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="1"/>
@@ -812,601 +803,601 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
-        <v>1</v>
-      </c>
+      <c r="A11" s="30"/>
       <c r="B11" s="20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="28"/>
+    <row r="15" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUM(C8:C13)</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="4" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="25"/>
       <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5">
-        <f>SUM(C11:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="28"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="25"/>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
-        <v>2</v>
-      </c>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
       <c r="B22" s="20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="25"/>
       <c r="E22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="25"/>
+    <row r="26" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUM(C19:C25)</f>
+        <v>0</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="5">
-        <f>SUM(C22:C28)</f>
-        <v>0</v>
-      </c>
+      <c r="E29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>3</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="28"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="10" t="s">
-        <v>31</v>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="28"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A32" s="30"/>
+      <c r="B32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="28"/>
       <c r="D32" s="1"/>
       <c r="E32" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
-        <v>3</v>
-      </c>
+      <c r="A33" s="30"/>
       <c r="B33" s="20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="E35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="28"/>
+      <c r="E36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="2"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5">
+        <f>SUM(C30:C36)</f>
+        <v>0</v>
+      </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="18"/>
+      <c r="E38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="2"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="20"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="5">
-        <f>SUM(C33:C39)</f>
-        <v>0</v>
-      </c>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="29">
+        <v>4</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="1"/>
       <c r="E42" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A43" s="30"/>
+      <c r="B43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="E43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
+      <c r="A44" s="30"/>
+      <c r="B44" s="20" t="s">
         <v>4</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>3</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="E44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="27"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="11" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="20" t="s">
-        <v>7</v>
-      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="2"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="49" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="5">
+        <f>SUM(C41:C48)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="2"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="20"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="5">
-        <f>SUM(C44:C51)</f>
-        <v>0</v>
-      </c>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="29">
+        <v>5</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="28"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="1"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="28"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="28"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
-        <v>5</v>
-      </c>
+      <c r="A55" s="30"/>
       <c r="B55" s="20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="1"/>
@@ -1417,7 +1408,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="B56" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" s="28"/>
       <c r="D56" s="1"/>
@@ -1428,9 +1419,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -1439,48 +1430,47 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="28"/>
+    <row r="59" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="2"/>
+    <row r="60" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="5">
+        <f>SUM(C52:C58)</f>
+        <v>0</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="2"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="2"/>
@@ -1489,13 +1479,13 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
-      <c r="B63" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="5">
-        <f>SUM(C55:C61)</f>
+      <c r="B63" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="13">
+        <f>SUM(C60,C49,C38,C27,C16)</f>
         <v>0</v>
       </c>
       <c r="D63" s="1"/>
@@ -1514,31 +1504,40 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
-      <c r="B66" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="13">
-        <f>SUM(C63,C52,C41,C30,C19)</f>
-        <v>0</v>
+      <c r="B66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="19"/>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -1546,40 +1545,30 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
-      <c r="B68" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="B68" s="19"/>
       <c r="C68" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1"/>
-      <c r="E68" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
-      <c r="B69" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="B69" s="19"/>
       <c r="C69" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="19"/>
-      <c r="C70" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -1587,53 +1576,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A41:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
